--- a/data/trans_dic/P14B23-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,28</t>
+          <t>1,17; 3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,05</t>
+          <t>1,0; 3,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,76</t>
+          <t>4,02; 7,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,39</t>
+          <t>6,99; 11,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,35</t>
+          <t>6,06; 10,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,89</t>
+          <t>4,8; 7,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,84</t>
+          <t>4,5; 7,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,25</t>
+          <t>3,87; 6,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,3</t>
+          <t>4,87; 7,24</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,01</t>
+          <t>1,89; 4,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,52</t>
+          <t>0,97; 2,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,23</t>
+          <t>0,98; 3,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 10,0</t>
+          <t>6,68; 10,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,83</t>
+          <t>4,74; 7,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,55</t>
+          <t>5,94; 8,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,64</t>
+          <t>4,64; 6,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,88</t>
+          <t>3,04; 4,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,42</t>
+          <t>3,0; 5,31</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,87</t>
+          <t>1,13; 3,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,91</t>
+          <t>1,46; 3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,41</t>
+          <t>2,18; 5,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,45</t>
+          <t>5,43; 9,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,74</t>
+          <t>5,11; 9,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,13</t>
+          <t>3,75; 9,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 5,96</t>
+          <t>3,63; 5,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,74</t>
+          <t>3,69; 5,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,1</t>
+          <t>3,68; 6,94</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,01</t>
+          <t>1,72; 4,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,17</t>
+          <t>1,32; 3,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,97</t>
+          <t>3,05; 5,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 9,73</t>
+          <t>6,2; 9,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,21</t>
+          <t>4,93; 7,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,46</t>
+          <t>6,11; 9,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,6</t>
+          <t>4,44; 6,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,44</t>
+          <t>3,47; 5,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 7,23</t>
+          <t>5,27; 7,35</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,16</t>
+          <t>1,99; 3,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,53</t>
+          <t>1,56; 2,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,36</t>
+          <t>2,81; 4,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 8,96</t>
+          <t>7,13; 9,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,63</t>
+          <t>5,87; 7,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,18</t>
+          <t>5,78; 8,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,79; 5,85</t>
+          <t>4,79; 5,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,97</t>
+          <t>3,9; 4,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 6,13</t>
+          <t>4,8; 6,09</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13834</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12300</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>35765</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>63370</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>53918</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>45787</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>77205</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>66218</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81553</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8256; 23381</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6773; 21304</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25570; 49158</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>48579; 78180</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>40786; 70235</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>34852; 57305</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>62886; 98378</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>52179; 84336</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>66291; 98524</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28827</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16302</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25329</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>84178</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>64166</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>69318</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>113005</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>80468</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>94647</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19264; 41229</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9939; 25473</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11747; 39012</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>68596; 106365</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>49463; 82025</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>56965; 83042</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>94770; 137847</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>62751; 99552</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64612; 114218</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16552</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18297</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24135</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>56021</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>53133</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>67776</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72573</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>71430</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>91911</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8581; 29608</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11107; 28272</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15379; 36994</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>42169; 71842</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>40103; 71745</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35014; 92976</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>55663; 89994</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56930; 90370</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>60346; 113654</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25945</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19992</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40573</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>81425</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>66699</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>85550</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>107369</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>86691</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>126123</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16321; 37935</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12397; 31022</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>28242; 53117</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>65038; 101835</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>51486; 83445</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>66936; 101781</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>88644; 128977</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>68750; 107358</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>106560; 148517</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>85158</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>66891</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>125802</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>284994</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>237917</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>268431</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>370152</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>304808</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>394233</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>68163; 107992</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>53009; 85211</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>97311; 153069</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>253008; 319642</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>208193; 268155</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>214393; 300328</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>333642; 406157</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>270864; 340407</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>344408; 437020</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>